--- a/regression/HT/Experiments.xlsx
+++ b/regression/HT/Experiments.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/YShimada-MBP16/Documents/Code_Github/DL_for_ImageData_and_Finetuning/regression/HT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F43BEF9-5485-9D48-B6F3-86B014882F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2936FD57-06B5-C940-991F-9D94CDF18086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8900" yWindow="2840" windowWidth="26940" windowHeight="16260" xr2:uid="{DE73F1F3-8CA9-3A4A-8002-8CAE140C6C71}"/>
+    <workbookView xWindow="36680" yWindow="2260" windowWidth="28260" windowHeight="17860" xr2:uid="{DE73F1F3-8CA9-3A4A-8002-8CAE140C6C71}"/>
   </bookViews>
   <sheets>
     <sheet name="LeaderBoard" sheetId="11" r:id="rId1"/>
-    <sheet name="_Experiment_Round" sheetId="9" r:id="rId2"/>
-    <sheet name="_LeaderBoard" sheetId="1" r:id="rId3"/>
+    <sheet name="1_4" sheetId="13" r:id="rId2"/>
+    <sheet name="_Experiment_Round" sheetId="9" r:id="rId3"/>
+    <sheet name="_LeaderBoard" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="121">
   <si>
     <t>Experiment_Name</t>
     <phoneticPr fontId="1"/>
@@ -574,6 +575,30 @@
   </si>
   <si>
     <t>RMSE_Test</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>coin-round1_backbone_tf_efficientnetv2_b3_learning_rate_0.0001</t>
+  </si>
+  <si>
+    <t>coin-round1_backbone_tf_efficientnetv2_b3_learning_rate_0.0003</t>
+  </si>
+  <si>
+    <t>coin-round1_backbone_resnet50_learning_rate_0.0003</t>
+  </si>
+  <si>
+    <t>coin-round1_backbone_resnet50_learning_rate_0.0001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>coin-round1_backbone_resnet50_learning_rate_0.001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>resnet50</t>
+  </si>
+  <si>
+    <t>coin-round1_backbone_tf_efficientnetv2_b3_learning_rate_0.001</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -758,7 +783,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -831,6 +856,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -846,6 +874,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C06BFC77-ED40-B420-BC8C-243CEB1AC596}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="952500" y="254000"/>
+          <a:ext cx="6781800" cy="5575300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1165,19 +1242,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48D48862-1C3D-FE42-8A53-4B5B606A539D}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M16" sqref="M16"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.140625" customWidth="1"/>
+    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -1270,13 +1351,346 @@
         <v>1.1111111111111111E-3</v>
       </c>
     </row>
+    <row r="3" spans="1:15">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="6">
+        <v>32</v>
+      </c>
+      <c r="F3" s="6">
+        <v>224</v>
+      </c>
+      <c r="G3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H3">
+        <v>1E-3</v>
+      </c>
+      <c r="I3">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3">
+        <v>3.3633999999999999</v>
+      </c>
+      <c r="M3">
+        <v>3.9723000000000002</v>
+      </c>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1">
+        <v>4.5370370370370373E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="24">
+        <v>32</v>
+      </c>
+      <c r="F4" s="24">
+        <v>224</v>
+      </c>
+      <c r="G4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H4">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="I4">
+        <v>15</v>
+      </c>
+      <c r="J4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4">
+        <v>3.8443000000000001</v>
+      </c>
+      <c r="M4">
+        <v>4.0403000000000002</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1">
+        <v>4.5486111111111109E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" s="24">
+        <v>32</v>
+      </c>
+      <c r="F5" s="24">
+        <v>224</v>
+      </c>
+      <c r="G5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H5">
+        <v>1E-4</v>
+      </c>
+      <c r="I5">
+        <v>15</v>
+      </c>
+      <c r="J5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5">
+        <v>6.2149000000000001</v>
+      </c>
+      <c r="M5">
+        <v>6.0180999999999996</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1">
+        <v>4.5717592592592589E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" s="24">
+        <v>32</v>
+      </c>
+      <c r="F6" s="24">
+        <v>224</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6">
+        <v>1E-3</v>
+      </c>
+      <c r="I6">
+        <v>15</v>
+      </c>
+      <c r="J6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6">
+        <v>3.2414000000000001</v>
+      </c>
+      <c r="M6">
+        <v>3.8208000000000002</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="1">
+        <v>5.4976851851851853E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="24">
+        <v>32</v>
+      </c>
+      <c r="F7" s="24">
+        <v>224</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="I7">
+        <v>15</v>
+      </c>
+      <c r="J7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7">
+        <v>4.1116000000000001</v>
+      </c>
+      <c r="M7">
+        <v>3.9319000000000002</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1">
+        <v>5.4861111111111109E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E8" s="24">
+        <v>32</v>
+      </c>
+      <c r="F8" s="24">
+        <v>224</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8">
+        <v>1E-4</v>
+      </c>
+      <c r="I8">
+        <v>15</v>
+      </c>
+      <c r="J8" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L8">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="M8">
+        <v>8.6232000000000006</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1">
+        <v>5.5902777777777773E-3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="L3:L8">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{96D6D315-4651-6943-8F45-D58B8077201B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3:M8">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{ED66980B-E8F2-B841-88C3-500DBD9CA6BE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{96D6D315-4651-6943-8F45-D58B8077201B}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>L3:L8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{ED66980B-E8F2-B841-88C3-500DBD9CA6BE}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>M3:M8</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F3ED50F-2001-B346-BE5E-C6D43A430713}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20A1254C-741F-C342-8B93-516326E2EE28}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -1370,13 +1784,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8830E46-7B15-3D47-9A55-E558DB18D047}">
   <dimension ref="A1:O42"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:O2"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>

--- a/regression/HT/Experiments.xlsx
+++ b/regression/HT/Experiments.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/YShimada-MBP16/Documents/Code_Github/DL_for_ImageData_and_Finetuning/regression/HT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2936FD57-06B5-C940-991F-9D94CDF18086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263CB67E-A919-A747-8FB4-FCC173AA69D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36680" yWindow="2260" windowWidth="28260" windowHeight="17860" xr2:uid="{DE73F1F3-8CA9-3A4A-8002-8CAE140C6C71}"/>
+    <workbookView xWindow="35840" yWindow="500" windowWidth="32000" windowHeight="18060" xr2:uid="{DE73F1F3-8CA9-3A4A-8002-8CAE140C6C71}"/>
   </bookViews>
   <sheets>
     <sheet name="LeaderBoard" sheetId="11" r:id="rId1"/>
     <sheet name="1_4" sheetId="13" r:id="rId2"/>
-    <sheet name="_Experiment_Round" sheetId="9" r:id="rId3"/>
-    <sheet name="_LeaderBoard" sheetId="1" r:id="rId4"/>
+    <sheet name="2_1" sheetId="15" r:id="rId3"/>
+    <sheet name="3_1" sheetId="16" r:id="rId4"/>
+    <sheet name="_Experiment_Round" sheetId="9" r:id="rId5"/>
+    <sheet name="_LeaderBoard" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="141">
   <si>
     <t>Experiment_Name</t>
     <phoneticPr fontId="1"/>
@@ -599,6 +601,86 @@
   </si>
   <si>
     <t>coin-round1_backbone_tf_efficientnetv2_b3_learning_rate_0.001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>coin-round2_augmentations_strategy_Soft_mix_image_Cutmix</t>
+  </si>
+  <si>
+    <t>coin-round2_augmentations_strategy_Medium_mix_image_Cutmix</t>
+  </si>
+  <si>
+    <t>coin-round2_augmentations_strategy_Hard_mix_image_Mixup</t>
+  </si>
+  <si>
+    <t>coin-round2_augmentations_strategy_Soft_mix_image_Disabled</t>
+  </si>
+  <si>
+    <t>coin-round2_augmentations_strategy_Hard_mix_image_Disabled</t>
+  </si>
+  <si>
+    <t>coin-round2_augmentations_strategy_Medium_mix_image_Disabled</t>
+  </si>
+  <si>
+    <t>coin-round2_augmentations_strategy_Medium_mix_image_Mixup</t>
+  </si>
+  <si>
+    <t>coin-round2_augmentations_strategy_Soft_mix_image_Mixup</t>
+  </si>
+  <si>
+    <t>coin-round2_augmentations_strategy_Hard_mix_image_Cutmix</t>
+  </si>
+  <si>
+    <t>ID=1_4と同じ</t>
+    <rPh sb="7" eb="8">
+      <t xml:space="preserve">オナジ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0_a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0_b</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID=bにエッポックを増加</t>
+    <rPh sb="11" eb="13">
+      <t xml:space="preserve">ゾウカ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>coin-baseline2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LRかEpochのせいか精度はイマイチ</t>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">セイドハ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>coin-round3_learning_rate_0.0001</t>
+  </si>
+  <si>
+    <t>coin-round3_learning_rate_0.001</t>
+  </si>
+  <si>
+    <t>coin-round3_learning_rate_0.0003</t>
+  </si>
+  <si>
+    <t>3_3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID=2_1の画像サイズUP</t>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">ガゾウサイズ </t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -606,7 +688,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -630,6 +712,12 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -783,7 +871,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -856,7 +944,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -914,6 +1014,104 @@
         <a:xfrm>
           <a:off x="952500" y="254000"/>
           <a:ext cx="6781800" cy="5575300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>26489</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE369818-A37B-367E-8B20-4117BF27E019}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="977900" y="279400"/>
+          <a:ext cx="7772400" cy="6605089"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>193648</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24B77B3B-C0B7-D995-2918-A0064DAB542A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="952500" y="254000"/>
+          <a:ext cx="7772400" cy="6543648"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1242,26 +1440,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48D48862-1C3D-FE42-8A53-4B5B606A539D}">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.140625" customWidth="1"/>
+    <col min="3" max="3" width="55.85546875" customWidth="1"/>
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="2.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:18">
       <c r="A1" s="16" t="s">
         <v>9</v>
       </c>
@@ -1306,159 +1505,163 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="2">
+    <row r="2" spans="1:18">
+      <c r="A2" s="5">
         <v>0</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="6">
+        <v>32</v>
+      </c>
+      <c r="F2" s="6">
+        <v>224</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="I2" s="6">
+        <v>5</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="6">
+        <v>14.1624</v>
+      </c>
+      <c r="M2" s="6">
+        <v>4.7773000000000003</v>
+      </c>
+      <c r="N2" s="6"/>
+      <c r="O2" s="7">
+        <v>1.1111111111111111E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="2">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="3">
-        <v>32</v>
-      </c>
-      <c r="F2" s="3">
-        <v>224</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="3">
+      <c r="B3" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3">
+        <v>32</v>
+      </c>
+      <c r="F3" s="3">
+        <v>384</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H3" s="3">
         <v>1E-3</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I3" s="3">
         <v>5</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="3">
-        <v>14.1624</v>
-      </c>
-      <c r="M2" s="3">
-        <v>4.7773000000000003</v>
-      </c>
-      <c r="N2" s="3"/>
-      <c r="O2" s="4">
-        <v>1.1111111111111111E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3">
+      <c r="L3" s="3">
+        <v>5.0355999999999996</v>
+      </c>
+      <c r="M3" s="3">
+        <v>5.2732000000000001</v>
+      </c>
+      <c r="N3" s="3"/>
+      <c r="O3" s="4">
+        <v>1.6319444444444445E-3</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B4" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="6">
-        <v>32</v>
-      </c>
-      <c r="F3" s="6">
-        <v>224</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="D4" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" s="6">
+        <v>32</v>
+      </c>
+      <c r="F4" s="6">
+        <v>384</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="H3">
+      <c r="H4" s="6">
         <v>1E-3</v>
       </c>
-      <c r="I3">
-        <v>15</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="I4" s="6">
+        <v>15</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K4" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="L3">
+      <c r="L4" s="6">
         <v>3.3633999999999999</v>
       </c>
-      <c r="M3">
+      <c r="M4" s="6">
         <v>3.9723000000000002</v>
       </c>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1">
+      <c r="N4" s="14"/>
+      <c r="O4" s="7">
         <v>4.5370370370370373E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
-      <c r="A4">
+    <row r="5" spans="1:18">
+      <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>116</v>
       </c>
-      <c r="E4" s="24">
-        <v>32</v>
-      </c>
-      <c r="F4" s="24">
-        <v>224</v>
-      </c>
-      <c r="G4" t="s">
-        <v>119</v>
-      </c>
-      <c r="H4">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="I4">
-        <v>15</v>
-      </c>
-      <c r="J4" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L4">
-        <v>3.8443000000000001</v>
-      </c>
-      <c r="M4">
-        <v>4.0403000000000002</v>
-      </c>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1">
-        <v>4.5486111111111109E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E5" s="24">
-        <v>32</v>
-      </c>
-      <c r="F5" s="24">
-        <v>224</v>
+      <c r="E5">
+        <v>32</v>
+      </c>
+      <c r="F5">
+        <v>384</v>
       </c>
       <c r="G5" t="s">
         <v>119</v>
       </c>
       <c r="H5">
-        <v>1E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="I5">
         <v>15</v>
@@ -1470,37 +1673,37 @@
         <v>45</v>
       </c>
       <c r="L5">
-        <v>6.2149000000000001</v>
+        <v>3.8443000000000001</v>
       </c>
       <c r="M5">
-        <v>6.0180999999999996</v>
+        <v>4.0403000000000002</v>
       </c>
       <c r="N5" s="1"/>
-      <c r="O5" s="1">
-        <v>4.5717592592592589E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6">
+      <c r="O5" s="9">
+        <v>4.5486111111111109E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="8">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E6" s="24">
-        <v>32</v>
-      </c>
-      <c r="F6" s="24">
-        <v>224</v>
+        <v>117</v>
+      </c>
+      <c r="E6">
+        <v>32</v>
+      </c>
+      <c r="F6">
+        <v>384</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="H6">
-        <v>1E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="I6">
         <v>15</v>
@@ -1512,39 +1715,38 @@
         <v>45</v>
       </c>
       <c r="L6">
-        <v>3.2414000000000001</v>
+        <v>6.2149000000000001</v>
       </c>
       <c r="M6">
-        <v>3.8208000000000002</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O6" s="1">
-        <v>5.4976851851851853E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7">
+        <v>6.0180999999999996</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="9">
+        <v>4.5717592592592589E-3</v>
+      </c>
+      <c r="Q6" s="24"/>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="8">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E7" s="24">
-        <v>32</v>
-      </c>
-      <c r="F7" s="24">
-        <v>224</v>
+        <v>120</v>
+      </c>
+      <c r="E7">
+        <v>32</v>
+      </c>
+      <c r="F7">
+        <v>384</v>
       </c>
       <c r="G7" t="s">
         <v>19</v>
       </c>
       <c r="H7">
-        <v>2.9999999999999997E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="I7">
         <v>15</v>
@@ -1556,37 +1758,39 @@
         <v>45</v>
       </c>
       <c r="L7">
-        <v>4.1116000000000001</v>
+        <v>3.2414000000000001</v>
       </c>
       <c r="M7">
-        <v>3.9319000000000002</v>
-      </c>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1">
-        <v>5.4861111111111109E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8">
+        <v>3.8208000000000002</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="9">
+        <v>5.4976851851851853E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="8">
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>114</v>
-      </c>
-      <c r="E8" s="24">
-        <v>32</v>
-      </c>
-      <c r="F8" s="24">
-        <v>224</v>
+        <v>115</v>
+      </c>
+      <c r="E8">
+        <v>32</v>
+      </c>
+      <c r="F8">
+        <v>384</v>
       </c>
       <c r="G8" t="s">
         <v>19</v>
       </c>
       <c r="H8">
-        <v>1E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="I8">
         <v>15</v>
@@ -1598,20 +1802,588 @@
         <v>45</v>
       </c>
       <c r="L8">
+        <v>4.1116000000000001</v>
+      </c>
+      <c r="M8">
+        <v>3.9319000000000002</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="9">
+        <v>5.4861111111111109E-3</v>
+      </c>
+      <c r="R8" s="1"/>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="10">
+        <v>1</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11">
+        <v>32</v>
+      </c>
+      <c r="F9" s="11">
+        <v>384</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="11">
+        <v>1E-4</v>
+      </c>
+      <c r="I9" s="11">
+        <v>15</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" s="11">
         <v>8.1199999999999992</v>
       </c>
-      <c r="M8">
+      <c r="M9" s="11">
         <v>8.6232000000000006</v>
       </c>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1">
+      <c r="N9" s="15"/>
+      <c r="O9" s="12">
         <v>5.5902777777777773E-3</v>
       </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="5">
+        <v>2</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E10" s="6">
+        <v>32</v>
+      </c>
+      <c r="F10" s="6">
+        <v>384</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="I10" s="6">
+        <v>15</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10" s="6">
+        <v>3.4302999999999999</v>
+      </c>
+      <c r="M10" s="6">
+        <v>3.8658000000000001</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10" s="7">
+        <v>5.4976851851851853E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="8">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E11">
+        <v>32</v>
+      </c>
+      <c r="F11">
+        <v>384</v>
+      </c>
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11">
+        <v>1E-3</v>
+      </c>
+      <c r="I11">
+        <v>15</v>
+      </c>
+      <c r="J11" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11">
+        <v>4.3616999999999999</v>
+      </c>
+      <c r="M11">
+        <v>4.6553000000000004</v>
+      </c>
+      <c r="N11" s="1"/>
+      <c r="O11" s="9">
+        <v>5.4976851851851853E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="8">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12">
+        <v>32</v>
+      </c>
+      <c r="F12">
+        <v>384</v>
+      </c>
+      <c r="G12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12">
+        <v>1E-3</v>
+      </c>
+      <c r="I12">
+        <v>15</v>
+      </c>
+      <c r="J12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L12">
+        <v>7.7671999999999999</v>
+      </c>
+      <c r="M12">
+        <v>7.5246000000000004</v>
+      </c>
+      <c r="N12" s="1"/>
+      <c r="O12" s="9">
+        <v>5.5787037037037038E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="8">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E13">
+        <v>32</v>
+      </c>
+      <c r="F13">
+        <v>384</v>
+      </c>
+      <c r="G13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13">
+        <v>1E-3</v>
+      </c>
+      <c r="I13">
+        <v>15</v>
+      </c>
+      <c r="J13" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" t="s">
+        <v>45</v>
+      </c>
+      <c r="L13">
+        <v>4.0330000000000004</v>
+      </c>
+      <c r="M13">
+        <v>4.3305999999999996</v>
+      </c>
+      <c r="N13" s="1"/>
+      <c r="O13" s="9">
+        <v>5.4976851851851853E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="8">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14">
+        <v>32</v>
+      </c>
+      <c r="F14">
+        <v>384</v>
+      </c>
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14">
+        <v>1E-3</v>
+      </c>
+      <c r="I14">
+        <v>15</v>
+      </c>
+      <c r="J14" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L14">
+        <v>5.0358000000000001</v>
+      </c>
+      <c r="M14">
+        <v>5.3598999999999997</v>
+      </c>
+      <c r="N14" s="1"/>
+      <c r="O14" s="9">
+        <v>5.6134259259259262E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="8">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15">
+        <v>32</v>
+      </c>
+      <c r="F15">
+        <v>384</v>
+      </c>
+      <c r="G15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15">
+        <v>1E-3</v>
+      </c>
+      <c r="I15">
+        <v>15</v>
+      </c>
+      <c r="J15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K15" t="s">
+        <v>43</v>
+      </c>
+      <c r="L15">
+        <v>7.7156000000000002</v>
+      </c>
+      <c r="M15">
+        <v>8.1325000000000003</v>
+      </c>
+      <c r="N15" s="1"/>
+      <c r="O15" s="9">
+        <v>5.5902777777777773E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="8">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" t="s">
+        <v>125</v>
+      </c>
+      <c r="E16">
+        <v>32</v>
+      </c>
+      <c r="F16">
+        <v>384</v>
+      </c>
+      <c r="G16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16">
+        <v>1E-3</v>
+      </c>
+      <c r="I16">
+        <v>15</v>
+      </c>
+      <c r="J16" t="s">
+        <v>41</v>
+      </c>
+      <c r="K16" t="s">
+        <v>45</v>
+      </c>
+      <c r="L16">
+        <v>9.0673999999999992</v>
+      </c>
+      <c r="M16">
+        <v>9.3490000000000002</v>
+      </c>
+      <c r="N16" s="1"/>
+      <c r="O16" s="9">
+        <v>5.4050925925925924E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="8">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" t="s">
+        <v>123</v>
+      </c>
+      <c r="E17">
+        <v>32</v>
+      </c>
+      <c r="F17">
+        <v>384</v>
+      </c>
+      <c r="G17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17">
+        <v>1E-3</v>
+      </c>
+      <c r="I17">
+        <v>15</v>
+      </c>
+      <c r="J17" t="s">
+        <v>41</v>
+      </c>
+      <c r="K17" t="s">
+        <v>44</v>
+      </c>
+      <c r="L17">
+        <v>10.4816</v>
+      </c>
+      <c r="M17">
+        <v>11.0303</v>
+      </c>
+      <c r="N17" s="1"/>
+      <c r="O17" s="9">
+        <v>5.4745370370370373E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="10">
+        <v>2</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11">
+        <v>32</v>
+      </c>
+      <c r="F18" s="11">
+        <v>384</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="11">
+        <v>1E-3</v>
+      </c>
+      <c r="I18" s="11">
+        <v>15</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="L18" s="11">
+        <v>13.5801</v>
+      </c>
+      <c r="M18" s="11">
+        <v>14.2171</v>
+      </c>
+      <c r="N18" s="15"/>
+      <c r="O18" s="12">
+        <v>5.5092592592592589E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="26">
+        <v>3</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" t="s">
+        <v>140</v>
+      </c>
+      <c r="E19">
+        <v>32</v>
+      </c>
+      <c r="F19">
+        <v>480</v>
+      </c>
+      <c r="G19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="I19">
+        <v>15</v>
+      </c>
+      <c r="J19" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19" t="s">
+        <v>45</v>
+      </c>
+      <c r="L19">
+        <v>3.3715999999999999</v>
+      </c>
+      <c r="M19">
+        <v>3.782</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O19" s="1">
+        <v>6.4351851851851853E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="26">
+        <v>3</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" t="s">
+        <v>138</v>
+      </c>
+      <c r="E20">
+        <v>32</v>
+      </c>
+      <c r="F20">
+        <v>480</v>
+      </c>
+      <c r="G20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="I20">
+        <v>15</v>
+      </c>
+      <c r="J20" t="s">
+        <v>42</v>
+      </c>
+      <c r="K20" t="s">
+        <v>45</v>
+      </c>
+      <c r="L20">
+        <v>3.6429999999999998</v>
+      </c>
+      <c r="M20">
+        <v>3.9186000000000001</v>
+      </c>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1">
+        <v>6.4699074074074077E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="26">
+        <v>3</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" t="s">
+        <v>136</v>
+      </c>
+      <c r="E21">
+        <v>32</v>
+      </c>
+      <c r="F21">
+        <v>480</v>
+      </c>
+      <c r="G21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21">
+        <v>1E-4</v>
+      </c>
+      <c r="I21">
+        <v>15</v>
+      </c>
+      <c r="J21" t="s">
+        <v>42</v>
+      </c>
+      <c r="K21" t="s">
+        <v>45</v>
+      </c>
+      <c r="L21">
+        <v>7.7385999999999999</v>
+      </c>
+      <c r="M21">
+        <v>7.4366000000000003</v>
+      </c>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1">
+        <v>6.4351851851851853E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="F28" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="L3:L8">
-    <cfRule type="dataBar" priority="2">
+  <conditionalFormatting sqref="L4:L9">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1624,8 +2396,22 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M3:M8">
-    <cfRule type="dataBar" priority="1">
+  <conditionalFormatting sqref="L10:L18">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFD6007B"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3C3B3FF4-F820-9E4B-9AE9-461AE9B1822A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M4:M9">
+    <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1634,6 +2420,48 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{ED66980B-E8F2-B841-88C3-500DBD9CA6BE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M10:M18">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFD6007B"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1C3ED73B-3348-D84A-8FB2-DDD9196F4012}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L19:L21">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D34372F2-8A4A-ED40-9632-3F1D8E841850}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M19:M21">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFD6007B"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{92F5E73B-A5FE-1B4E-9ECE-3A25F158EF5D}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1653,7 +2481,20 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>L3:L8</xm:sqref>
+          <xm:sqref>L4:L9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3C3B3FF4-F820-9E4B-9AE9-461AE9B1822A}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFD6007B"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>L10:L18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{ED66980B-E8F2-B841-88C3-500DBD9CA6BE}">
@@ -1666,7 +2507,46 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>M3:M8</xm:sqref>
+          <xm:sqref>M4:M9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1C3ED73B-3348-D84A-8FB2-DDD9196F4012}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFD6007B"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>M10:M18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D34372F2-8A4A-ED40-9632-3F1D8E841850}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>L19:L21</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{92F5E73B-A5FE-1B4E-9ECE-3A25F158EF5D}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFD6007B"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>M19:M21</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -1691,6 +2571,42 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16F2BB55-B978-B84D-B736-8BDA12BBFAAC}">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" s="28"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6924999D-F6AF-DC43-BE9F-B282A94FB1F6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20A1254C-741F-C342-8B93-516326E2EE28}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -1784,13 +2700,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8830E46-7B15-3D47-9A55-E558DB18D047}">
   <dimension ref="A1:O42"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3:B8"/>
+      <selection pane="bottomLeft" activeCell="J9" sqref="J9:K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>

--- a/regression/HT/Experiments.xlsx
+++ b/regression/HT/Experiments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/YShimada-MBP16/Documents/Code_Github/DL_for_ImageData_and_Finetuning/regression/HT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A71A542F-B950-5B4C-AA89-54230AA9B483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1309BE4D-6014-6F46-A144-37FD3530CD6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35840" yWindow="500" windowWidth="36020" windowHeight="20660" activeTab="1" xr2:uid="{DE73F1F3-8CA9-3A4A-8002-8CAE140C6C71}"/>
+    <workbookView xWindow="35840" yWindow="500" windowWidth="33760" windowHeight="18460" xr2:uid="{DE73F1F3-8CA9-3A4A-8002-8CAE140C6C71}"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment_Round" sheetId="24" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <sheet name="6_1.2.3" sheetId="23" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="143">
   <si>
     <t>Experiment_Name</t>
     <phoneticPr fontId="1"/>
@@ -803,38 +802,54 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>スコアの伸びを確認。ただしブレが大きいことは同じ。学習履歴（シート"6_1.2.3"）を見ても、検証データのスコアの到達地点がまちまち。バッチ数が少ないためか？</t>
-    <rPh sb="4" eb="5">
-      <t xml:space="preserve">ノビヲ </t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t xml:space="preserve">カクニン </t>
-    </rPh>
-    <rPh sb="16" eb="17">
+    <t>RMSE_Test_BestEpoch</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Final Epoch Model</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Best Epoch Model</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最終エポックのモデルか、ベストエポックモデルが良いかは判断できず。
+ブレが大きいことは相変わらず。学習履歴（シート"6_1.2.3"）を見ても、検証データのスコアの到達地点がまちまち。バッチ数が少ないためか？</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">サイシュウ </t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t xml:space="preserve">ヨイカハ </t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t xml:space="preserve">ハンダン </t>
+    </rPh>
+    <rPh sb="36" eb="37">
       <t xml:space="preserve">オオキイ </t>
     </rPh>
-    <rPh sb="22" eb="23">
-      <t xml:space="preserve">オナジ </t>
-    </rPh>
-    <rPh sb="25" eb="29">
+    <rPh sb="42" eb="44">
+      <t xml:space="preserve">アイカワラズ </t>
+    </rPh>
+    <rPh sb="48" eb="51">
       <t xml:space="preserve">ガクシュウリレキ </t>
     </rPh>
-    <rPh sb="37" eb="38">
+    <rPh sb="59" eb="60">
       <t xml:space="preserve">ミテモ </t>
     </rPh>
-    <rPh sb="48" eb="50">
+    <rPh sb="70" eb="72">
       <t xml:space="preserve">ケンショウ </t>
     </rPh>
-    <rPh sb="58" eb="60">
+    <rPh sb="80" eb="82">
       <t xml:space="preserve">トウタツ </t>
     </rPh>
-    <rPh sb="60" eb="62">
+    <rPh sb="82" eb="84">
       <t xml:space="preserve">チテンガ </t>
     </rPh>
-    <rPh sb="71" eb="72">
+    <rPh sb="93" eb="94">
       <t xml:space="preserve">スウガ </t>
     </rPh>
-    <rPh sb="73" eb="74">
+    <rPh sb="95" eb="96">
       <t xml:space="preserve">スクナイタメカ </t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1035,7 +1050,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1147,11 +1162,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1871,8 +1883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BF631FF-B85C-984C-9A83-179AC618D0A8}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1987,7 +1999,7 @@
         <v>138</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1998,11 +2010,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48D48862-1C3D-FE42-8A53-4B5B606A539D}">
-  <dimension ref="A1:R41"/>
+  <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S14" sqref="S14"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O31" sqref="M31:O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2015,12 +2027,14 @@
     <col min="6" max="6" width="12.28515625" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" customWidth="1"/>
     <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" customWidth="1"/>
+    <col min="16" max="16" width="2.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="20" customFormat="1" ht="42">
+    <row r="1" spans="1:19" s="20" customFormat="1" ht="42">
       <c r="A1" s="22" t="s">
         <v>5</v>
       </c>
@@ -2063,13 +2077,16 @@
       <c r="N1" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="O1" s="23"/>
-      <c r="P1" s="27" t="s">
+      <c r="O1" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="37"/>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="R1" s="37"/>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="29">
         <v>0</v>
       </c>
@@ -2113,12 +2130,13 @@
         <v>4.7773000000000003</v>
       </c>
       <c r="O2" s="5"/>
-      <c r="P2" s="6">
+      <c r="P2" s="5"/>
+      <c r="Q2" s="6">
         <v>1.1111111111111111E-3</v>
       </c>
-      <c r="Q2" s="38"/>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="30" t="s">
         <v>120</v>
       </c>
@@ -2160,12 +2178,13 @@
         <v>5.2732000000000001</v>
       </c>
       <c r="O3" s="2"/>
-      <c r="P3" s="3">
+      <c r="P3" s="2"/>
+      <c r="Q3" s="3">
         <v>1.6319444444444445E-3</v>
       </c>
-      <c r="Q3" s="38"/>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="29">
         <v>1</v>
       </c>
@@ -2208,13 +2227,14 @@
       <c r="N4" s="5">
         <v>3.9723000000000002</v>
       </c>
-      <c r="O4" s="11"/>
-      <c r="P4" s="6">
+      <c r="O4" s="5"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="6">
         <v>4.5370370370370373E-3</v>
       </c>
-      <c r="Q4" s="38"/>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="28">
         <v>1</v>
       </c>
@@ -2254,13 +2274,13 @@
       <c r="N5">
         <v>4.0403000000000002</v>
       </c>
-      <c r="O5" s="1"/>
-      <c r="P5" s="8">
+      <c r="P5" s="1"/>
+      <c r="Q5" s="8">
         <v>4.5486111111111109E-3</v>
       </c>
-      <c r="Q5" s="38"/>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="28">
         <v>1</v>
       </c>
@@ -2300,13 +2320,13 @@
       <c r="N6">
         <v>6.0180999999999996</v>
       </c>
-      <c r="O6" s="1"/>
-      <c r="P6" s="8">
+      <c r="P6" s="1"/>
+      <c r="Q6" s="8">
         <v>4.5717592592592589E-3</v>
       </c>
-      <c r="Q6" s="38"/>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="R6" s="1"/>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="28">
         <v>1</v>
       </c>
@@ -2346,15 +2366,15 @@
       <c r="N7">
         <v>3.8208000000000002</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P7" s="8">
+      <c r="Q7" s="8">
         <v>5.4976851851851853E-3</v>
       </c>
-      <c r="Q7" s="38"/>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="R7" s="1"/>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="28">
         <v>1</v>
       </c>
@@ -2394,14 +2414,14 @@
       <c r="N8">
         <v>3.9319000000000002</v>
       </c>
-      <c r="O8" s="1"/>
-      <c r="P8" s="8">
+      <c r="P8" s="1"/>
+      <c r="Q8" s="8">
         <v>5.4861111111111109E-3</v>
       </c>
-      <c r="Q8" s="38"/>
       <c r="R8" s="1"/>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="S8" s="1"/>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="31">
         <v>1</v>
       </c>
@@ -2442,13 +2462,14 @@
       <c r="N9" s="9">
         <v>8.6232000000000006</v>
       </c>
-      <c r="O9" s="12"/>
-      <c r="P9" s="10">
+      <c r="O9" s="9"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="10">
         <v>5.5902777777777773E-3</v>
       </c>
-      <c r="Q9" s="38"/>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="R9" s="1"/>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="29">
         <v>2</v>
       </c>
@@ -2491,15 +2512,16 @@
       <c r="N10" s="5">
         <v>3.8658000000000001</v>
       </c>
-      <c r="O10" s="11" t="s">
+      <c r="O10" s="5"/>
+      <c r="P10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="P10" s="6">
+      <c r="Q10" s="6">
         <v>5.4976851851851853E-3</v>
       </c>
-      <c r="Q10" s="38"/>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="R10" s="1"/>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="28">
         <v>2</v>
       </c>
@@ -2539,13 +2561,13 @@
       <c r="N11">
         <v>4.6553000000000004</v>
       </c>
-      <c r="O11" s="1"/>
-      <c r="P11" s="8">
+      <c r="P11" s="1"/>
+      <c r="Q11" s="8">
         <v>5.4976851851851853E-3</v>
       </c>
-      <c r="Q11" s="38"/>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="R11" s="1"/>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="28">
         <v>2</v>
       </c>
@@ -2585,13 +2607,13 @@
       <c r="N12">
         <v>7.5246000000000004</v>
       </c>
-      <c r="O12" s="1"/>
-      <c r="P12" s="8">
+      <c r="P12" s="1"/>
+      <c r="Q12" s="8">
         <v>5.5787037037037038E-3</v>
       </c>
-      <c r="Q12" s="38"/>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="R12" s="1"/>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="28">
         <v>2</v>
       </c>
@@ -2631,13 +2653,13 @@
       <c r="N13">
         <v>4.3305999999999996</v>
       </c>
-      <c r="O13" s="1"/>
-      <c r="P13" s="8">
+      <c r="P13" s="1"/>
+      <c r="Q13" s="8">
         <v>5.4976851851851853E-3</v>
       </c>
-      <c r="Q13" s="38"/>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="R13" s="1"/>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="28">
         <v>2</v>
       </c>
@@ -2677,13 +2699,13 @@
       <c r="N14">
         <v>5.3598999999999997</v>
       </c>
-      <c r="O14" s="1"/>
-      <c r="P14" s="8">
+      <c r="P14" s="1"/>
+      <c r="Q14" s="8">
         <v>5.6134259259259262E-3</v>
       </c>
-      <c r="Q14" s="38"/>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="R14" s="1"/>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="28">
         <v>2</v>
       </c>
@@ -2723,13 +2745,13 @@
       <c r="N15">
         <v>8.1325000000000003</v>
       </c>
-      <c r="O15" s="1"/>
-      <c r="P15" s="8">
+      <c r="P15" s="1"/>
+      <c r="Q15" s="8">
         <v>5.5902777777777773E-3</v>
       </c>
-      <c r="Q15" s="38"/>
-    </row>
-    <row r="16" spans="1:18">
+      <c r="R15" s="1"/>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="28">
         <v>2</v>
       </c>
@@ -2769,13 +2791,13 @@
       <c r="N16">
         <v>9.3490000000000002</v>
       </c>
-      <c r="O16" s="1"/>
-      <c r="P16" s="8">
+      <c r="P16" s="1"/>
+      <c r="Q16" s="8">
         <v>5.4050925925925924E-3</v>
       </c>
-      <c r="Q16" s="38"/>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16" s="1"/>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="28">
         <v>2</v>
       </c>
@@ -2815,13 +2837,13 @@
       <c r="N17">
         <v>11.0303</v>
       </c>
-      <c r="O17" s="1"/>
-      <c r="P17" s="8">
+      <c r="P17" s="1"/>
+      <c r="Q17" s="8">
         <v>5.4745370370370373E-3</v>
       </c>
-      <c r="Q17" s="38"/>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17" s="1"/>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="31">
         <v>2</v>
       </c>
@@ -2862,13 +2884,14 @@
       <c r="N18" s="9">
         <v>14.2171</v>
       </c>
-      <c r="O18" s="12"/>
-      <c r="P18" s="10">
+      <c r="O18" s="9"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="10">
         <v>5.5092592592592589E-3</v>
       </c>
-      <c r="Q18" s="38"/>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18" s="1"/>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="29">
         <v>3</v>
       </c>
@@ -2911,15 +2934,16 @@
       <c r="N19" s="5">
         <v>3.782</v>
       </c>
-      <c r="O19" s="11" t="s">
+      <c r="O19" s="5"/>
+      <c r="P19" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="P19" s="6">
+      <c r="Q19" s="6">
         <v>6.4351851851851853E-3</v>
       </c>
-      <c r="Q19" s="38"/>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19" s="1"/>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="28">
         <v>3</v>
       </c>
@@ -2962,13 +2986,13 @@
       <c r="N20">
         <v>3.9186000000000001</v>
       </c>
-      <c r="O20" s="1"/>
-      <c r="P20" s="8">
+      <c r="P20" s="1"/>
+      <c r="Q20" s="8">
         <v>6.4699074074074077E-3</v>
       </c>
-      <c r="Q20" s="38"/>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20" s="1"/>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="31">
         <v>3</v>
       </c>
@@ -3011,13 +3035,14 @@
       <c r="N21" s="9">
         <v>7.4366000000000003</v>
       </c>
-      <c r="O21" s="12"/>
-      <c r="P21" s="10">
+      <c r="O21" s="9"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="10">
         <v>6.4351851851851853E-3</v>
       </c>
-      <c r="Q21" s="38"/>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21" s="1"/>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="29">
         <v>4</v>
       </c>
@@ -3059,12 +3084,13 @@
         <v>3.9117000000000002</v>
       </c>
       <c r="O22" s="5"/>
-      <c r="P22" s="6">
+      <c r="P22" s="5"/>
+      <c r="Q22" s="6">
         <v>1.5138888888888889E-2</v>
       </c>
-      <c r="Q22" s="38"/>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22" s="1"/>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="28">
         <v>4</v>
       </c>
@@ -3104,15 +3130,15 @@
       <c r="N23">
         <v>2.5411000000000001</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
         <v>11</v>
       </c>
-      <c r="P23" s="8">
+      <c r="Q23" s="8">
         <v>1.4930555555555556E-2</v>
       </c>
-      <c r="Q23" s="38"/>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23" s="1"/>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="28">
         <v>4</v>
       </c>
@@ -3152,12 +3178,12 @@
       <c r="N24">
         <v>4.1677</v>
       </c>
-      <c r="P24" s="8">
+      <c r="Q24" s="8">
         <v>1.5034722222222222E-2</v>
       </c>
-      <c r="Q24" s="38"/>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24" s="1"/>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="28">
         <v>4</v>
       </c>
@@ -3197,12 +3223,12 @@
       <c r="N25">
         <v>3.7397999999999998</v>
       </c>
-      <c r="P25" s="8">
+      <c r="Q25" s="8">
         <v>1.8194444444444444E-2</v>
       </c>
-      <c r="Q25" s="38"/>
-    </row>
-    <row r="26" spans="1:17">
+      <c r="R25" s="1"/>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26" s="28">
         <v>4</v>
       </c>
@@ -3242,12 +3268,12 @@
       <c r="N26">
         <v>3.0493999999999999</v>
       </c>
-      <c r="P26" s="8">
+      <c r="Q26" s="8">
         <v>1.8032407407407407E-2</v>
       </c>
-      <c r="Q26" s="38"/>
-    </row>
-    <row r="27" spans="1:17">
+      <c r="R26" s="1"/>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27" s="28">
         <v>4</v>
       </c>
@@ -3287,12 +3313,12 @@
       <c r="N27">
         <v>6.8083999999999998</v>
       </c>
-      <c r="P27" s="8">
+      <c r="Q27" s="8">
         <v>1.8055555555555554E-2</v>
       </c>
-      <c r="Q27" s="38"/>
-    </row>
-    <row r="28" spans="1:17">
+      <c r="R27" s="1"/>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28" s="28">
         <v>4</v>
       </c>
@@ -3332,12 +3358,12 @@
       <c r="N28">
         <v>44.950699999999998</v>
       </c>
-      <c r="P28" s="8">
+      <c r="Q28" s="8">
         <v>2.2291666666666668E-2</v>
       </c>
-      <c r="Q28" s="38"/>
-    </row>
-    <row r="29" spans="1:17">
+      <c r="R28" s="1"/>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29" s="28">
         <v>4</v>
       </c>
@@ -3377,12 +3403,12 @@
       <c r="N29">
         <v>3.8378999999999999</v>
       </c>
-      <c r="P29" s="8">
+      <c r="Q29" s="8">
         <v>2.2465277777777778E-2</v>
       </c>
-      <c r="Q29" s="38"/>
-    </row>
-    <row r="30" spans="1:17">
+      <c r="R29" s="1"/>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30" s="31">
         <v>4</v>
       </c>
@@ -3424,12 +3450,13 @@
         <v>4.6284999999999998</v>
       </c>
       <c r="O30" s="9"/>
-      <c r="P30" s="10">
+      <c r="P30" s="9"/>
+      <c r="Q30" s="10">
         <v>2.2465277777777778E-2</v>
       </c>
-      <c r="Q30" s="38"/>
-    </row>
-    <row r="31" spans="1:17">
+      <c r="R30" s="1"/>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31" s="29" t="s">
         <v>121</v>
       </c>
@@ -3472,15 +3499,16 @@
       <c r="N31" s="5">
         <v>2.0312000000000001</v>
       </c>
-      <c r="O31" s="5" t="s">
+      <c r="O31" s="5"/>
+      <c r="P31" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="P31" s="6">
+      <c r="Q31" s="6">
         <v>2.5057870370370369E-2</v>
       </c>
-      <c r="Q31" s="38"/>
-    </row>
-    <row r="32" spans="1:17">
+      <c r="R31" s="1"/>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32" s="28" t="s">
         <v>121</v>
       </c>
@@ -3523,12 +3551,12 @@
       <c r="N32">
         <v>2.4523999999999999</v>
       </c>
-      <c r="P32" s="8">
+      <c r="Q32" s="8">
         <v>2.5509259259259259E-2</v>
       </c>
-      <c r="Q32" s="38"/>
-    </row>
-    <row r="33" spans="1:17">
+      <c r="R32" s="1"/>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33" s="28" t="s">
         <v>121</v>
       </c>
@@ -3571,12 +3599,12 @@
       <c r="N33">
         <v>2.4077000000000002</v>
       </c>
-      <c r="P33" s="8">
+      <c r="Q33" s="8">
         <v>2.4930555555555556E-2</v>
       </c>
-      <c r="Q33" s="38"/>
-    </row>
-    <row r="34" spans="1:17">
+      <c r="R33" s="1"/>
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34" s="29">
         <v>5</v>
       </c>
@@ -3618,12 +3646,13 @@
         <v>3.6880999999999999</v>
       </c>
       <c r="O34" s="5"/>
-      <c r="P34" s="6">
+      <c r="P34" s="5"/>
+      <c r="Q34" s="6">
         <v>2.0335648148148148E-2</v>
       </c>
-      <c r="Q34" s="38"/>
-    </row>
-    <row r="35" spans="1:17">
+      <c r="R34" s="1"/>
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35" s="28">
         <v>5</v>
       </c>
@@ -3663,12 +3692,12 @@
       <c r="N35">
         <v>5.8800999999999997</v>
       </c>
-      <c r="P35" s="8">
+      <c r="Q35" s="8">
         <v>2.0277777777777777E-2</v>
       </c>
-      <c r="Q35" s="38"/>
-    </row>
-    <row r="36" spans="1:17">
+      <c r="R35" s="1"/>
+    </row>
+    <row r="36" spans="1:18">
       <c r="A36" s="31">
         <v>5</v>
       </c>
@@ -3710,12 +3739,13 @@
         <v>2.8614999999999999</v>
       </c>
       <c r="O36" s="9"/>
-      <c r="P36" s="10">
+      <c r="P36" s="9"/>
+      <c r="Q36" s="10">
         <v>2.0578703703703703E-2</v>
       </c>
-      <c r="Q36" s="38"/>
-    </row>
-    <row r="37" spans="1:17">
+      <c r="R36" s="1"/>
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37" s="29">
         <v>6</v>
       </c>
@@ -3758,13 +3788,16 @@
       <c r="N37" s="5">
         <v>2.7970999999999999</v>
       </c>
-      <c r="O37" s="5"/>
-      <c r="P37" s="6">
+      <c r="O37" s="5">
+        <v>2.6225999999999998</v>
+      </c>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="6">
         <v>2.537037037037037E-2</v>
       </c>
-      <c r="Q37" s="38"/>
-    </row>
-    <row r="38" spans="1:17">
+      <c r="R37" s="1"/>
+    </row>
+    <row r="38" spans="1:18">
       <c r="A38" s="28">
         <v>6</v>
       </c>
@@ -3807,12 +3840,18 @@
       <c r="N38">
         <v>1.0222</v>
       </c>
-      <c r="P38" s="8">
+      <c r="O38">
+        <v>2.2313999999999998</v>
+      </c>
+      <c r="P38" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q38" s="8">
         <v>2.525462962962963E-2</v>
       </c>
-      <c r="Q38" s="38"/>
-    </row>
-    <row r="39" spans="1:17">
+      <c r="R38" s="1"/>
+    </row>
+    <row r="39" spans="1:18">
       <c r="A39" s="31">
         <v>6</v>
       </c>
@@ -3855,23 +3894,32 @@
       <c r="N39" s="9">
         <v>1.7373000000000001</v>
       </c>
-      <c r="O39" s="9"/>
-      <c r="P39" s="10">
+      <c r="O39" s="9">
+        <v>1.2128000000000001</v>
+      </c>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="10">
         <v>2.5277777777777777E-2</v>
       </c>
-      <c r="Q39" s="38"/>
-    </row>
-    <row r="40" spans="1:17">
+      <c r="R39" s="1"/>
+    </row>
+    <row r="40" spans="1:18" ht="42">
       <c r="L40" s="5"/>
-    </row>
-    <row r="41" spans="1:17">
+      <c r="N40" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="O40" s="20" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
       <c r="K41" s="17"/>
       <c r="L41" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="M4:M9">
-    <cfRule type="dataBar" priority="18">
+    <cfRule type="dataBar" priority="19">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3885,7 +3933,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10:M18">
-    <cfRule type="dataBar" priority="15">
+    <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3899,7 +3947,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M19:M21">
-    <cfRule type="dataBar" priority="13">
+    <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3913,7 +3961,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M22:M27">
-    <cfRule type="dataBar" priority="10">
+    <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3927,7 +3975,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M22:M30">
-    <cfRule type="dataBar" priority="8">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3941,7 +3989,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M31:M33">
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3955,7 +4003,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M34:M36">
-    <cfRule type="dataBar" priority="4">
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3969,7 +4017,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M37:M39">
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3982,8 +4030,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N4:N9">
-    <cfRule type="dataBar" priority="17">
+  <conditionalFormatting sqref="N4:O9">
+    <cfRule type="dataBar" priority="18">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3996,8 +4044,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N10:N18">
-    <cfRule type="dataBar" priority="14">
+  <conditionalFormatting sqref="N10:O18">
+    <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4010,8 +4058,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N19:N21">
-    <cfRule type="dataBar" priority="11">
+  <conditionalFormatting sqref="N19:O21">
+    <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4024,8 +4072,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N22:N27">
-    <cfRule type="dataBar" priority="9">
+  <conditionalFormatting sqref="N22:O27">
+    <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4038,8 +4086,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N22:N30">
-    <cfRule type="dataBar" priority="7">
+  <conditionalFormatting sqref="N22:O30">
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4052,8 +4100,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N31:N33">
-    <cfRule type="dataBar" priority="6">
+  <conditionalFormatting sqref="N31:O33">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4066,8 +4114,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N34:N36">
-    <cfRule type="dataBar" priority="3">
+  <conditionalFormatting sqref="N34:O36">
+    <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4081,6 +4129,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N37:N39">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2B13CD5E-3757-B54B-9DA2-61A67CA0506C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O37:O39">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -4089,7 +4151,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2B13CD5E-3757-B54B-9DA2-61A67CA0506C}</x14:id>
+          <x14:id>{23A267A1-3D28-D540-84CD-1FE54B6D83E2}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4213,7 +4275,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>N4:N9</xm:sqref>
+          <xm:sqref>N4:O9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1C3ED73B-3348-D84A-8FB2-DDD9196F4012}">
@@ -4226,7 +4288,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>N10:N18</xm:sqref>
+          <xm:sqref>N10:O18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{92F5E73B-A5FE-1B4E-9ECE-3A25F158EF5D}">
@@ -4239,7 +4301,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>N19:N21</xm:sqref>
+          <xm:sqref>N19:O21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8C15754E-591F-794D-B50E-242439043A57}">
@@ -4252,7 +4314,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>N22:N27</xm:sqref>
+          <xm:sqref>N22:O27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{0FA4A7A4-D80B-E647-82E0-124E9078B8D3}">
@@ -4265,7 +4327,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>N22:N30</xm:sqref>
+          <xm:sqref>N22:O30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{22D460E6-983A-7F43-BF6A-280C0295E619}">
@@ -4278,7 +4340,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>N31:N33</xm:sqref>
+          <xm:sqref>N31:O33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C52B8E5E-5FB9-614C-AA46-B61446122EC5}">
@@ -4291,7 +4353,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>N34:N36</xm:sqref>
+          <xm:sqref>N34:O36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2B13CD5E-3757-B54B-9DA2-61A67CA0506C}">
@@ -4305,6 +4367,19 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>N37:N39</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{23A267A1-3D28-D540-84CD-1FE54B6D83E2}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>O37:O39</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
